--- a/config_3.2/item_config.xlsx
+++ b/config_3.2/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="988">
   <si>
     <t>id|行号</t>
   </si>
@@ -3545,18 +3545,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_hqjnh_csbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_hqjnh_ssbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_hqjnh_xybox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>传说宝箱</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3566,10 +3554,6 @@
   </si>
   <si>
     <t>稀有宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢庆嘉年华购买欢乐礼包获得</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3770,6 +3754,30 @@
   </si>
   <si>
     <t>小汤圆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--传说</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--史诗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包专用--稀有</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3848,7 +3856,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3903,6 +3911,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3946,7 +3960,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4055,7 +4069,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4338,9 +4355,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I314" sqref="I314"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7945,7 +7962,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -8698,10 +8715,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="J131" s="35" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -14217,100 +14234,100 @@
         <v>922</v>
       </c>
     </row>
-    <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="11">
+    <row r="292" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="36">
         <v>291</v>
       </c>
-      <c r="B292" s="11">
+      <c r="B292" s="36">
         <v>291</v>
       </c>
-      <c r="C292" s="12" t="s">
+      <c r="C292" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="D292" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E292" s="36">
+        <v>1</v>
+      </c>
+      <c r="F292" s="37" t="s">
+        <v>933</v>
+      </c>
+      <c r="G292" s="36">
+        <v>1</v>
+      </c>
+      <c r="H292" s="36">
+        <v>33</v>
+      </c>
+      <c r="I292" s="37" t="s">
         <v>930</v>
       </c>
-      <c r="D292" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E292" s="11">
-        <v>1</v>
-      </c>
-      <c r="F292" s="12" t="s">
-        <v>937</v>
-      </c>
-      <c r="G292" s="11">
-        <v>1</v>
-      </c>
-      <c r="H292" s="11">
+      <c r="J292" s="37" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="36">
+        <v>292</v>
+      </c>
+      <c r="B293" s="36">
+        <v>292</v>
+      </c>
+      <c r="C293" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="D293" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E293" s="36">
+        <v>1</v>
+      </c>
+      <c r="F293" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="G293" s="36">
+        <v>1</v>
+      </c>
+      <c r="H293" s="36">
         <v>33</v>
       </c>
-      <c r="I292" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="J292" s="12" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="11">
-        <v>292</v>
-      </c>
-      <c r="B293" s="11">
-        <v>292</v>
-      </c>
-      <c r="C293" s="12" t="s">
+      <c r="I293" s="37" t="s">
         <v>931</v>
       </c>
-      <c r="D293" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E293" s="11">
-        <v>1</v>
-      </c>
-      <c r="F293" s="11" t="s">
-        <v>938</v>
-      </c>
-      <c r="G293" s="11">
-        <v>1</v>
-      </c>
-      <c r="H293" s="11">
+      <c r="J293" s="37" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="36">
+        <v>293</v>
+      </c>
+      <c r="B294" s="36">
+        <v>293</v>
+      </c>
+      <c r="C294" s="37" t="s">
+        <v>984</v>
+      </c>
+      <c r="D294" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E294" s="36">
+        <v>1</v>
+      </c>
+      <c r="F294" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="G294" s="36">
+        <v>1</v>
+      </c>
+      <c r="H294" s="36">
         <v>33</v>
       </c>
-      <c r="I293" s="12" t="s">
-        <v>934</v>
-      </c>
-      <c r="J293" s="12" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="11">
-        <v>293</v>
-      </c>
-      <c r="B294" s="11">
-        <v>293</v>
-      </c>
-      <c r="C294" s="12" t="s">
+      <c r="I294" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="D294" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E294" s="11">
-        <v>1</v>
-      </c>
-      <c r="F294" s="11" t="s">
-        <v>939</v>
-      </c>
-      <c r="G294" s="11">
-        <v>1</v>
-      </c>
-      <c r="H294" s="11">
-        <v>33</v>
-      </c>
-      <c r="I294" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="J294" s="12" t="s">
-        <v>936</v>
+      <c r="J294" s="37" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14321,7 +14338,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D295" s="11">
         <v>-1</v>
@@ -14330,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G295" s="11">
         <v>1</v>
@@ -14339,10 +14356,10 @@
         <v>33</v>
       </c>
       <c r="I295" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="J295" s="12" t="s">
         <v>943</v>
-      </c>
-      <c r="J295" s="12" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="296" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14353,7 +14370,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D296" s="11">
         <v>-1</v>
@@ -14362,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G296" s="11">
         <v>1</v>
@@ -14371,10 +14388,10 @@
         <v>33</v>
       </c>
       <c r="I296" s="12" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="J296" s="12" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="297" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14385,7 +14402,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D297" s="11">
         <v>-1</v>
@@ -14394,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G297" s="11">
         <v>1</v>
@@ -14403,10 +14420,10 @@
         <v>33</v>
       </c>
       <c r="I297" s="12" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="J297" s="12" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="298" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -14417,7 +14434,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D298" s="11">
         <v>-1</v>
@@ -14426,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G298" s="11">
         <v>1</v>
@@ -14435,298 +14452,298 @@
         <v>33</v>
       </c>
       <c r="I298" s="12" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="J298" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A299" s="11">
         <v>298</v>
       </c>
       <c r="B299" s="11">
         <v>298</v>
       </c>
-      <c r="C299" s="33" t="s">
-        <v>955</v>
-      </c>
-      <c r="D299" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E299" s="34">
-        <v>1</v>
-      </c>
-      <c r="F299" s="36" t="s">
-        <v>974</v>
-      </c>
-      <c r="G299" s="34">
+      <c r="C299" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="D299" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E299" s="11">
+        <v>1</v>
+      </c>
+      <c r="F299" s="22" t="s">
+        <v>970</v>
+      </c>
+      <c r="G299" s="11">
         <v>0</v>
       </c>
-      <c r="H299" s="34">
-        <v>1</v>
-      </c>
-      <c r="I299" s="35" t="s">
+      <c r="H299" s="11">
+        <v>1</v>
+      </c>
+      <c r="I299" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="J299" s="35" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J299" s="12" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A300" s="11">
         <v>299</v>
       </c>
       <c r="B300" s="11">
         <v>299</v>
       </c>
-      <c r="C300" s="33" t="s">
-        <v>956</v>
-      </c>
-      <c r="D300" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E300" s="34">
-        <v>1</v>
-      </c>
-      <c r="F300" s="35" t="s">
-        <v>975</v>
-      </c>
-      <c r="G300" s="34">
+      <c r="C300" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="D300" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E300" s="11">
+        <v>1</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="G300" s="11">
         <v>0</v>
       </c>
-      <c r="H300" s="34">
-        <v>1</v>
-      </c>
-      <c r="I300" s="35" t="s">
+      <c r="H300" s="11">
+        <v>1</v>
+      </c>
+      <c r="I300" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J300" s="35" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J300" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="11">
         <v>300</v>
       </c>
       <c r="B301" s="11">
         <v>300</v>
       </c>
-      <c r="C301" s="33" t="s">
-        <v>957</v>
-      </c>
-      <c r="D301" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E301" s="34">
-        <v>1</v>
-      </c>
-      <c r="F301" s="35" t="s">
-        <v>976</v>
-      </c>
-      <c r="G301" s="34">
+      <c r="C301" s="19" t="s">
+        <v>953</v>
+      </c>
+      <c r="D301" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E301" s="11">
+        <v>1</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="G301" s="11">
         <v>0</v>
       </c>
-      <c r="H301" s="34">
-        <v>1</v>
-      </c>
-      <c r="I301" s="35" t="s">
+      <c r="H301" s="11">
+        <v>1</v>
+      </c>
+      <c r="I301" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="J301" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="J301" s="35" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A302" s="11">
         <v>301</v>
       </c>
       <c r="B302" s="11">
         <v>301</v>
       </c>
-      <c r="C302" s="33" t="s">
-        <v>958</v>
-      </c>
-      <c r="D302" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E302" s="34">
-        <v>1</v>
-      </c>
-      <c r="F302" s="35" t="s">
-        <v>977</v>
-      </c>
-      <c r="G302" s="34">
+      <c r="C302" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="D302" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E302" s="11">
+        <v>1</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="G302" s="11">
         <v>0</v>
       </c>
-      <c r="H302" s="34">
-        <v>1</v>
-      </c>
-      <c r="I302" s="35" t="s">
+      <c r="H302" s="11">
+        <v>1</v>
+      </c>
+      <c r="I302" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="J302" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="J302" s="35" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="11">
         <v>302</v>
       </c>
       <c r="B303" s="11">
         <v>302</v>
       </c>
-      <c r="C303" s="33" t="s">
-        <v>967</v>
-      </c>
-      <c r="D303" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E303" s="34">
-        <v>1</v>
-      </c>
-      <c r="F303" s="36" t="s">
-        <v>968</v>
-      </c>
-      <c r="G303" s="34">
+      <c r="C303" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="D303" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E303" s="11">
+        <v>1</v>
+      </c>
+      <c r="F303" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="G303" s="11">
         <v>0</v>
       </c>
-      <c r="H303" s="34">
-        <v>1</v>
-      </c>
-      <c r="I303" s="35" t="s">
-        <v>965</v>
-      </c>
-      <c r="J303" s="35" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H303" s="11">
+        <v>1</v>
+      </c>
+      <c r="I303" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="J303" s="12" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="11">
         <v>303</v>
       </c>
       <c r="B304" s="11">
         <v>303</v>
       </c>
-      <c r="C304" s="33" t="s">
-        <v>969</v>
-      </c>
-      <c r="D304" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E304" s="34">
-        <v>1</v>
-      </c>
-      <c r="F304" s="36" t="s">
-        <v>979</v>
-      </c>
-      <c r="G304" s="34">
+      <c r="C304" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D304" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E304" s="11">
+        <v>1</v>
+      </c>
+      <c r="F304" s="22" t="s">
+        <v>975</v>
+      </c>
+      <c r="G304" s="11">
         <v>0</v>
       </c>
-      <c r="H304" s="34">
-        <v>1</v>
-      </c>
-      <c r="I304" s="35" t="s">
-        <v>970</v>
-      </c>
-      <c r="J304" s="35" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H304" s="11">
+        <v>1</v>
+      </c>
+      <c r="I304" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="J304" s="12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="11">
         <v>304</v>
       </c>
       <c r="B305" s="11">
         <v>304</v>
       </c>
-      <c r="C305" s="33" t="s">
-        <v>972</v>
-      </c>
-      <c r="D305" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E305" s="34">
-        <v>1</v>
-      </c>
-      <c r="F305" s="36" t="s">
-        <v>978</v>
-      </c>
-      <c r="G305" s="34">
+      <c r="C305" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="D305" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E305" s="11">
+        <v>1</v>
+      </c>
+      <c r="F305" s="22" t="s">
+        <v>974</v>
+      </c>
+      <c r="G305" s="11">
         <v>0</v>
       </c>
-      <c r="H305" s="34">
-        <v>1</v>
-      </c>
-      <c r="I305" s="35" t="s">
-        <v>973</v>
-      </c>
-      <c r="J305" s="35" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H305" s="11">
+        <v>1</v>
+      </c>
+      <c r="I305" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="J305" s="12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="11">
         <v>305</v>
       </c>
       <c r="B306" s="11">
         <v>305</v>
       </c>
-      <c r="C306" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="D306" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E306" s="34">
-        <v>1</v>
-      </c>
-      <c r="F306" s="35" t="s">
-        <v>980</v>
-      </c>
-      <c r="G306" s="34">
+      <c r="C306" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D306" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E306" s="11">
+        <v>1</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="G306" s="11">
         <v>0</v>
       </c>
-      <c r="H306" s="34">
-        <v>1</v>
-      </c>
-      <c r="I306" s="35" t="s">
+      <c r="H306" s="11">
+        <v>1</v>
+      </c>
+      <c r="I306" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="J306" s="35" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J306" s="12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="11">
         <v>306</v>
       </c>
       <c r="B307" s="11">
         <v>306</v>
       </c>
-      <c r="C307" s="33" t="s">
-        <v>983</v>
-      </c>
-      <c r="D307" s="34">
-        <v>-1</v>
-      </c>
-      <c r="E307" s="34">
-        <v>1</v>
-      </c>
-      <c r="F307" s="35" t="s">
-        <v>984</v>
-      </c>
-      <c r="G307" s="34">
+      <c r="C307" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="D307" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="11">
+        <v>1</v>
+      </c>
+      <c r="F307" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="G307" s="11">
         <v>0</v>
       </c>
-      <c r="H307" s="34">
-        <v>1</v>
-      </c>
-      <c r="I307" s="35" t="s">
-        <v>985</v>
-      </c>
-      <c r="J307" s="35" t="s">
-        <v>940</v>
+      <c r="H307" s="11">
+        <v>1</v>
+      </c>
+      <c r="I307" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="J307" s="12" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.2/item_config.xlsx
+++ b/config_3.2/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1018">
   <si>
     <t>id|行号</t>
   </si>
@@ -2627,10 +2627,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>eznhk_icon_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>eznhk_icon_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3562,10 +3558,6 @@
   </si>
   <si>
     <t>ty_lb1_icon_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_lb1_icon_3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3886,6 +3878,23 @@
   <si>
     <t>玫瑰</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_lb1_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_csbox"</t>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_ssbox"</t>
+  </si>
+  <si>
+    <t>"act_ty_lb1","prop_ty_xybox"</t>
   </si>
 </sst>
 </file>
@@ -4074,7 +4083,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4197,6 +4206,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4478,9 +4490,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L303" sqref="L303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4538,13 +4550,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>294</v>
@@ -7081,7 +7093,7 @@
         <v>424</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -8085,7 +8097,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -8820,7 +8832,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D131" s="34">
         <v>-1</v>
@@ -8829,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G131" s="34">
         <v>0</v>
@@ -8838,10 +8850,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J131" s="35" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -9766,7 +9778,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -9835,10 +9847,10 @@
       </c>
     </row>
     <row r="162" spans="1:14" s="29" customFormat="1" ht="16.5">
-      <c r="A162" s="29">
+      <c r="A162" s="11">
         <v>161</v>
       </c>
-      <c r="B162" s="29">
+      <c r="B162" s="11">
         <v>161</v>
       </c>
       <c r="C162" s="30" t="s">
@@ -9870,10 +9882,10 @@
       </c>
     </row>
     <row r="163" spans="1:14" s="29" customFormat="1" ht="16.5">
-      <c r="A163" s="29">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="29">
+      <c r="B163" s="11">
         <v>162</v>
       </c>
       <c r="C163" s="30" t="s">
@@ -9905,10 +9917,10 @@
       </c>
     </row>
     <row r="164" spans="1:14" s="29" customFormat="1" ht="16.5">
-      <c r="A164" s="29">
+      <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B164" s="29">
+      <c r="B164" s="11">
         <v>163</v>
       </c>
       <c r="C164" s="30" t="s">
@@ -9940,10 +9952,10 @@
       </c>
     </row>
     <row r="165" spans="1:14" s="29" customFormat="1" ht="16.5">
-      <c r="A165" s="29">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="29">
+      <c r="B165" s="11">
         <v>164</v>
       </c>
       <c r="C165" s="30" t="s">
@@ -9975,10 +9987,10 @@
       </c>
     </row>
     <row r="166" spans="1:14" s="29" customFormat="1" ht="16.5">
-      <c r="A166" s="29">
+      <c r="A166" s="11">
         <v>165</v>
       </c>
-      <c r="B166" s="29">
+      <c r="B166" s="11">
         <v>165</v>
       </c>
       <c r="C166" s="30" t="s">
@@ -10536,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>648</v>
+        <v>1013</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -10551,7 +10563,7 @@
         <v>637</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -10574,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -10589,7 +10601,7 @@
         <v>638</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -10603,7 +10615,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D184" s="23">
         <v>-1</v>
@@ -10612,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -10627,21 +10639,21 @@
         <v>639</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:15" s="27" customFormat="1">
-      <c r="A185" s="27">
+      <c r="A185" s="11">
         <v>184</v>
       </c>
-      <c r="B185" s="27">
+      <c r="B185" s="11">
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10650,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10659,24 +10671,24 @@
         <v>1</v>
       </c>
       <c r="I185" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="J185" s="28" t="s">
         <v>660</v>
-      </c>
-      <c r="J185" s="28" t="s">
-        <v>661</v>
       </c>
       <c r="N185" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:15" s="27" customFormat="1">
-      <c r="A186" s="27">
+      <c r="A186" s="11">
         <v>185</v>
       </c>
-      <c r="B186" s="27">
+      <c r="B186" s="11">
         <v>185</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D186" s="27">
         <v>-1</v>
@@ -10685,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10694,24 +10706,24 @@
         <v>2</v>
       </c>
       <c r="I186" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="J186" s="28" t="s">
         <v>662</v>
-      </c>
-      <c r="J186" s="28" t="s">
-        <v>663</v>
       </c>
       <c r="N186" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:15" s="27" customFormat="1">
-      <c r="A187" s="27">
+      <c r="A187" s="11">
         <v>186</v>
       </c>
-      <c r="B187" s="27">
+      <c r="B187" s="11">
         <v>186</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D187" s="27">
         <v>-1</v>
@@ -10720,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10729,24 +10741,24 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:15" s="27" customFormat="1">
-      <c r="A188" s="27">
+      <c r="A188" s="11">
         <v>187</v>
       </c>
-      <c r="B188" s="27">
+      <c r="B188" s="11">
         <v>187</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D188" s="27">
         <v>-1</v>
@@ -10755,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10764,24 +10776,24 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:15" s="27" customFormat="1">
-      <c r="A189" s="27">
+      <c r="A189" s="11">
         <v>188</v>
       </c>
-      <c r="B189" s="27">
+      <c r="B189" s="11">
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10790,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10799,24 +10811,24 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:15" s="27" customFormat="1">
-      <c r="A190" s="27">
+      <c r="A190" s="11">
         <v>189</v>
       </c>
-      <c r="B190" s="27">
+      <c r="B190" s="11">
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10825,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10834,24 +10846,24 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:15" s="27" customFormat="1">
-      <c r="A191" s="27">
+      <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="27">
+      <c r="B191" s="11">
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10860,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10869,24 +10881,24 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="27">
+      <c r="A192" s="11">
         <v>191</v>
       </c>
-      <c r="B192" s="27">
+      <c r="B192" s="11">
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10895,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10904,24 +10916,24 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="27">
+      <c r="A193" s="11">
         <v>192</v>
       </c>
-      <c r="B193" s="27">
+      <c r="B193" s="11">
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10930,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10939,24 +10951,24 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="27">
+      <c r="A194" s="11">
         <v>193</v>
       </c>
-      <c r="B194" s="27">
+      <c r="B194" s="11">
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10965,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10974,24 +10986,24 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="27">
+      <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="27">
+      <c r="B195" s="11">
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -11000,7 +11012,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -11009,24 +11021,24 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="27">
+      <c r="A196" s="11">
         <v>195</v>
       </c>
-      <c r="B196" s="27">
+      <c r="B196" s="11">
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -11035,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -11044,24 +11056,24 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="27">
+      <c r="A197" s="11">
         <v>196</v>
       </c>
-      <c r="B197" s="27">
+      <c r="B197" s="11">
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -11070,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -11079,24 +11091,24 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="27">
+      <c r="A198" s="11">
         <v>197</v>
       </c>
-      <c r="B198" s="27">
+      <c r="B198" s="11">
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -11105,7 +11117,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -11114,24 +11126,24 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="27">
+      <c r="A199" s="11">
         <v>198</v>
       </c>
-      <c r="B199" s="27">
+      <c r="B199" s="11">
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -11140,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -11149,24 +11161,24 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="27">
+      <c r="A200" s="11">
         <v>199</v>
       </c>
-      <c r="B200" s="27">
+      <c r="B200" s="11">
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -11175,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -11184,24 +11196,24 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="27">
+      <c r="A201" s="11">
         <v>200</v>
       </c>
-      <c r="B201" s="27">
+      <c r="B201" s="11">
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -11210,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -11219,24 +11231,24 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:14">
-      <c r="A202" s="27">
+      <c r="A202" s="11">
         <v>201</v>
       </c>
-      <c r="B202" s="27">
+      <c r="B202" s="11">
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -11245,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -11254,24 +11266,24 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="27">
+      <c r="A203" s="11">
         <v>202</v>
       </c>
-      <c r="B203" s="27">
+      <c r="B203" s="11">
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -11280,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -11289,24 +11301,24 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="27">
+      <c r="A204" s="11">
         <v>203</v>
       </c>
-      <c r="B204" s="27">
+      <c r="B204" s="11">
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -11315,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -11324,24 +11336,24 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="27">
+      <c r="A205" s="11">
         <v>204</v>
       </c>
-      <c r="B205" s="27">
+      <c r="B205" s="11">
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11350,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11359,24 +11371,24 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="27">
+      <c r="A206" s="11">
         <v>205</v>
       </c>
-      <c r="B206" s="27">
+      <c r="B206" s="11">
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11385,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11394,24 +11406,24 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="27">
+      <c r="A207" s="11">
         <v>206</v>
       </c>
-      <c r="B207" s="27">
+      <c r="B207" s="11">
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11420,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11429,24 +11441,24 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="27">
+      <c r="A208" s="11">
         <v>207</v>
       </c>
-      <c r="B208" s="27">
+      <c r="B208" s="11">
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11455,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11464,24 +11476,24 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="27">
+      <c r="A209" s="11">
         <v>208</v>
       </c>
-      <c r="B209" s="27">
+      <c r="B209" s="11">
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11490,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11499,24 +11511,24 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="27">
+      <c r="A210" s="11">
         <v>209</v>
       </c>
-      <c r="B210" s="27">
+      <c r="B210" s="11">
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11525,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11534,24 +11546,24 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="27">
+      <c r="A211" s="11">
         <v>210</v>
       </c>
-      <c r="B211" s="27">
+      <c r="B211" s="11">
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11560,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11569,24 +11581,24 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="27">
+      <c r="A212" s="11">
         <v>211</v>
       </c>
-      <c r="B212" s="27">
+      <c r="B212" s="11">
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11595,7 +11607,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11604,24 +11616,24 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="27">
+      <c r="A213" s="11">
         <v>212</v>
       </c>
-      <c r="B213" s="27">
+      <c r="B213" s="11">
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11630,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11639,24 +11651,24 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="27">
+      <c r="A214" s="11">
         <v>213</v>
       </c>
-      <c r="B214" s="27">
+      <c r="B214" s="11">
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11665,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11674,24 +11686,24 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="27">
+      <c r="A215" s="11">
         <v>214</v>
       </c>
-      <c r="B215" s="27">
+      <c r="B215" s="11">
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11700,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11709,24 +11721,24 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="27">
+      <c r="A216" s="11">
         <v>215</v>
       </c>
-      <c r="B216" s="27">
+      <c r="B216" s="11">
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11735,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11744,24 +11756,24 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="27">
+      <c r="A217" s="11">
         <v>216</v>
       </c>
-      <c r="B217" s="27">
+      <c r="B217" s="11">
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11770,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11779,24 +11791,24 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="27">
+      <c r="A218" s="11">
         <v>217</v>
       </c>
-      <c r="B218" s="27">
+      <c r="B218" s="11">
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11805,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11814,24 +11826,24 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="27">
+      <c r="A219" s="11">
         <v>218</v>
       </c>
-      <c r="B219" s="27">
+      <c r="B219" s="11">
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11840,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11849,24 +11861,24 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="27">
+      <c r="A220" s="11">
         <v>219</v>
       </c>
-      <c r="B220" s="27">
+      <c r="B220" s="11">
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11875,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11884,24 +11896,24 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="27">
+      <c r="A221" s="11">
         <v>220</v>
       </c>
-      <c r="B221" s="27">
+      <c r="B221" s="11">
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11910,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11919,24 +11931,24 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="27">
+      <c r="A222" s="11">
         <v>221</v>
       </c>
-      <c r="B222" s="27">
+      <c r="B222" s="11">
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11945,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11954,24 +11966,24 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="27">
+      <c r="A223" s="11">
         <v>222</v>
       </c>
-      <c r="B223" s="27">
+      <c r="B223" s="11">
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11980,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11989,24 +12001,24 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="27">
+      <c r="A224" s="11">
         <v>223</v>
       </c>
-      <c r="B224" s="27">
+      <c r="B224" s="11">
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -12015,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -12024,24 +12036,24 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="27">
+      <c r="A225" s="11">
         <v>224</v>
       </c>
-      <c r="B225" s="27">
+      <c r="B225" s="11">
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -12050,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -12059,24 +12071,24 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="27">
+      <c r="A226" s="11">
         <v>225</v>
       </c>
-      <c r="B226" s="27">
+      <c r="B226" s="11">
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -12085,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -12094,24 +12106,24 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="27">
+      <c r="A227" s="11">
         <v>226</v>
       </c>
-      <c r="B227" s="27">
+      <c r="B227" s="11">
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -12120,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -12129,24 +12141,24 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="27">
+      <c r="A228" s="11">
         <v>227</v>
       </c>
-      <c r="B228" s="27">
+      <c r="B228" s="11">
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -12155,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -12164,24 +12176,24 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="27">
+      <c r="A229" s="11">
         <v>228</v>
       </c>
-      <c r="B229" s="27">
+      <c r="B229" s="11">
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -12190,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -12199,24 +12211,24 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="27">
+      <c r="A230" s="11">
         <v>229</v>
       </c>
-      <c r="B230" s="27">
+      <c r="B230" s="11">
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -12225,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -12234,24 +12246,24 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="27">
+      <c r="A231" s="11">
         <v>230</v>
       </c>
-      <c r="B231" s="27">
+      <c r="B231" s="11">
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -12260,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -12269,24 +12281,24 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="27">
+      <c r="A232" s="11">
         <v>231</v>
       </c>
-      <c r="B232" s="27">
+      <c r="B232" s="11">
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -12295,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -12304,24 +12316,24 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="27">
+      <c r="A233" s="11">
         <v>232</v>
       </c>
-      <c r="B233" s="27">
+      <c r="B233" s="11">
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -12330,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -12339,24 +12351,24 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="27">
+      <c r="A234" s="11">
         <v>233</v>
       </c>
-      <c r="B234" s="27">
+      <c r="B234" s="11">
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -12365,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -12374,24 +12386,24 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="27">
+      <c r="A235" s="11">
         <v>234</v>
       </c>
-      <c r="B235" s="27">
+      <c r="B235" s="11">
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12400,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12409,24 +12421,24 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="27">
+      <c r="A236" s="11">
         <v>235</v>
       </c>
-      <c r="B236" s="27">
+      <c r="B236" s="11">
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12435,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12444,24 +12456,24 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="27">
+      <c r="A237" s="11">
         <v>236</v>
       </c>
-      <c r="B237" s="27">
+      <c r="B237" s="11">
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12470,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12479,24 +12491,24 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="27">
+      <c r="A238" s="11">
         <v>237</v>
       </c>
-      <c r="B238" s="27">
+      <c r="B238" s="11">
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12505,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12514,24 +12526,24 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="27">
+      <c r="A239" s="11">
         <v>238</v>
       </c>
-      <c r="B239" s="27">
+      <c r="B239" s="11">
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12540,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12549,24 +12561,24 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="27">
+      <c r="A240" s="11">
         <v>239</v>
       </c>
-      <c r="B240" s="27">
+      <c r="B240" s="11">
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12575,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12584,24 +12596,24 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="27">
+      <c r="A241" s="11">
         <v>240</v>
       </c>
-      <c r="B241" s="27">
+      <c r="B241" s="11">
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12610,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12619,24 +12631,24 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="27">
+      <c r="A242" s="11">
         <v>241</v>
       </c>
-      <c r="B242" s="27">
+      <c r="B242" s="11">
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12645,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12654,24 +12666,24 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="27">
+      <c r="A243" s="11">
         <v>242</v>
       </c>
-      <c r="B243" s="27">
+      <c r="B243" s="11">
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12680,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12689,24 +12701,24 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="27">
+      <c r="A244" s="11">
         <v>243</v>
       </c>
-      <c r="B244" s="27">
+      <c r="B244" s="11">
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12715,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12724,24 +12736,24 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="27">
+      <c r="A245" s="11">
         <v>244</v>
       </c>
-      <c r="B245" s="27">
+      <c r="B245" s="11">
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12750,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12759,24 +12771,24 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="27">
+      <c r="A246" s="11">
         <v>245</v>
       </c>
-      <c r="B246" s="27">
+      <c r="B246" s="11">
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12785,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12794,24 +12806,24 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="27">
+      <c r="A247" s="11">
         <v>246</v>
       </c>
-      <c r="B247" s="27">
+      <c r="B247" s="11">
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12820,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12829,24 +12841,24 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="27">
+      <c r="A248" s="11">
         <v>247</v>
       </c>
-      <c r="B248" s="27">
+      <c r="B248" s="11">
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12855,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12864,24 +12876,24 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="27">
+      <c r="A249" s="11">
         <v>248</v>
       </c>
-      <c r="B249" s="27">
+      <c r="B249" s="11">
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12890,7 +12902,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12899,24 +12911,24 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="27">
+      <c r="A250" s="11">
         <v>249</v>
       </c>
-      <c r="B250" s="27">
+      <c r="B250" s="11">
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12925,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12934,24 +12946,24 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="27">
+      <c r="A251" s="11">
         <v>250</v>
       </c>
-      <c r="B251" s="27">
+      <c r="B251" s="11">
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12960,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12969,24 +12981,24 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="27">
+      <c r="A252" s="11">
         <v>251</v>
       </c>
-      <c r="B252" s="27">
+      <c r="B252" s="11">
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12995,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -13004,24 +13016,24 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="27">
+      <c r="A253" s="11">
         <v>252</v>
       </c>
-      <c r="B253" s="27">
+      <c r="B253" s="11">
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -13030,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -13039,24 +13051,24 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="27">
+      <c r="A254" s="11">
         <v>253</v>
       </c>
-      <c r="B254" s="27">
+      <c r="B254" s="11">
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -13065,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -13074,24 +13086,24 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="27">
+      <c r="A255" s="11">
         <v>254</v>
       </c>
-      <c r="B255" s="27">
+      <c r="B255" s="11">
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -13100,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -13109,24 +13121,24 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="27">
+      <c r="A256" s="11">
         <v>255</v>
       </c>
-      <c r="B256" s="27">
+      <c r="B256" s="11">
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -13135,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -13144,24 +13156,24 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="27">
+      <c r="A257" s="11">
         <v>256</v>
       </c>
-      <c r="B257" s="27">
+      <c r="B257" s="11">
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -13170,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -13179,24 +13191,24 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="27">
+      <c r="A258" s="11">
         <v>257</v>
       </c>
-      <c r="B258" s="27">
+      <c r="B258" s="11">
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -13205,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -13214,24 +13226,24 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="27">
+      <c r="A259" s="11">
         <v>258</v>
       </c>
-      <c r="B259" s="27">
+      <c r="B259" s="11">
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -13240,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -13249,24 +13261,24 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="27">
+      <c r="A260" s="11">
         <v>259</v>
       </c>
-      <c r="B260" s="27">
+      <c r="B260" s="11">
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -13275,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -13284,24 +13296,24 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="27">
+      <c r="A261" s="11">
         <v>260</v>
       </c>
-      <c r="B261" s="27">
+      <c r="B261" s="11">
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -13310,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -13319,24 +13331,24 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="27">
+      <c r="A262" s="11">
         <v>261</v>
       </c>
-      <c r="B262" s="27">
+      <c r="B262" s="11">
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -13345,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -13354,24 +13366,24 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="27">
+      <c r="A263" s="11">
         <v>262</v>
       </c>
-      <c r="B263" s="27">
+      <c r="B263" s="11">
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13380,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13389,24 +13401,24 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="27">
+      <c r="A264" s="11">
         <v>263</v>
       </c>
-      <c r="B264" s="27">
+      <c r="B264" s="11">
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13415,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13424,24 +13436,24 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="27">
+      <c r="A265" s="11">
         <v>264</v>
       </c>
-      <c r="B265" s="27">
+      <c r="B265" s="11">
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13450,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13459,24 +13471,24 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="27">
+      <c r="A266" s="11">
         <v>265</v>
       </c>
-      <c r="B266" s="27">
+      <c r="B266" s="11">
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13485,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13494,24 +13506,24 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="27">
+      <c r="A267" s="11">
         <v>266</v>
       </c>
-      <c r="B267" s="27">
+      <c r="B267" s="11">
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13520,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13529,24 +13541,24 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="27">
+      <c r="A268" s="11">
         <v>267</v>
       </c>
-      <c r="B268" s="27">
+      <c r="B268" s="11">
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13555,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13564,24 +13576,24 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="27">
+      <c r="A269" s="11">
         <v>268</v>
       </c>
-      <c r="B269" s="27">
+      <c r="B269" s="11">
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13590,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13599,24 +13611,24 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="27">
+      <c r="A270" s="11">
         <v>269</v>
       </c>
-      <c r="B270" s="27">
+      <c r="B270" s="11">
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13625,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13634,24 +13646,24 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="27">
+      <c r="A271" s="11">
         <v>270</v>
       </c>
-      <c r="B271" s="27">
+      <c r="B271" s="11">
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13660,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13669,24 +13681,24 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="27">
+      <c r="A272" s="11">
         <v>271</v>
       </c>
-      <c r="B272" s="27">
+      <c r="B272" s="11">
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13695,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13704,24 +13716,24 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="27">
+      <c r="A273" s="11">
         <v>272</v>
       </c>
-      <c r="B273" s="27">
+      <c r="B273" s="11">
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13730,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13739,24 +13751,24 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="27">
+      <c r="A274" s="11">
         <v>273</v>
       </c>
-      <c r="B274" s="27">
+      <c r="B274" s="11">
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13765,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13774,24 +13786,24 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="27">
+      <c r="A275" s="11">
         <v>274</v>
       </c>
-      <c r="B275" s="27">
+      <c r="B275" s="11">
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13800,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13809,24 +13821,24 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="27">
+      <c r="A276" s="11">
         <v>275</v>
       </c>
-      <c r="B276" s="27">
+      <c r="B276" s="11">
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13835,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13844,24 +13856,24 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="27">
+      <c r="A277" s="11">
         <v>276</v>
       </c>
-      <c r="B277" s="27">
+      <c r="B277" s="11">
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13870,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13879,24 +13891,24 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="27">
+      <c r="A278" s="11">
         <v>277</v>
       </c>
-      <c r="B278" s="27">
+      <c r="B278" s="11">
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13905,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13914,24 +13926,24 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="27">
+      <c r="A279" s="11">
         <v>278</v>
       </c>
-      <c r="B279" s="27">
+      <c r="B279" s="11">
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13940,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13949,24 +13961,24 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="27">
+      <c r="A280" s="11">
         <v>279</v>
       </c>
-      <c r="B280" s="27">
+      <c r="B280" s="11">
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13975,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13984,24 +13996,24 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="27">
+      <c r="A281" s="11">
         <v>280</v>
       </c>
-      <c r="B281" s="27">
+      <c r="B281" s="11">
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -14010,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -14019,24 +14031,24 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="27">
+      <c r="A282" s="11">
         <v>281</v>
       </c>
-      <c r="B282" s="27">
+      <c r="B282" s="11">
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -14045,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -14054,24 +14066,24 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="27">
+      <c r="A283" s="11">
         <v>282</v>
       </c>
-      <c r="B283" s="27">
+      <c r="B283" s="11">
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -14080,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -14089,24 +14101,24 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="27">
+      <c r="A284" s="11">
         <v>283</v>
       </c>
-      <c r="B284" s="27">
+      <c r="B284" s="11">
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -14115,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -14124,10 +14136,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -14141,16 +14153,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="D285" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="11">
+        <v>1</v>
+      </c>
+      <c r="F285" s="12" t="s">
         <v>762</v>
-      </c>
-      <c r="D285" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E285" s="11">
-        <v>1</v>
-      </c>
-      <c r="F285" s="12" t="s">
-        <v>763</v>
       </c>
       <c r="G285" s="11">
         <v>0</v>
@@ -14159,10 +14171,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="11" customFormat="1">
@@ -14173,7 +14185,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D286" s="11">
         <v>-1</v>
@@ -14191,10 +14203,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="J286" s="11" t="s">
         <v>765</v>
-      </c>
-      <c r="J286" s="11" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="11" customFormat="1">
@@ -14205,16 +14217,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="D287" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E287" s="11">
+        <v>1</v>
+      </c>
+      <c r="F287" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="D287" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E287" s="11">
-        <v>1</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>809</v>
       </c>
       <c r="G287" s="11">
         <v>0</v>
@@ -14223,10 +14235,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="J287" s="11" t="s">
         <v>810</v>
-      </c>
-      <c r="J287" s="11" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="11" customFormat="1">
@@ -14237,7 +14249,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D288" s="11">
         <v>-1</v>
@@ -14246,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G288" s="11">
         <v>0</v>
@@ -14255,13 +14267,13 @@
         <v>33</v>
       </c>
       <c r="I288" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="J288" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="J288" s="12" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" s="11" customFormat="1">
+    </row>
+    <row r="289" spans="1:12" s="11" customFormat="1">
       <c r="A289" s="11">
         <v>288</v>
       </c>
@@ -14269,7 +14281,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D289" s="11">
         <v>-1</v>
@@ -14278,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G289" s="11">
         <v>0</v>
@@ -14287,13 +14299,13 @@
         <v>33</v>
       </c>
       <c r="I289" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="J289" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="J289" s="12" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" s="11" customFormat="1">
+    </row>
+    <row r="290" spans="1:12" s="11" customFormat="1">
       <c r="A290" s="11">
         <v>289</v>
       </c>
@@ -14301,7 +14313,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D290" s="11">
         <v>-1</v>
@@ -14310,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G290" s="11">
         <v>0</v>
@@ -14322,10 +14334,10 @@
         <v>545</v>
       </c>
       <c r="J290" s="12" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" s="11" customFormat="1">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" s="11" customFormat="1">
       <c r="A291" s="11">
         <v>290</v>
       </c>
@@ -14333,16 +14345,16 @@
         <v>290</v>
       </c>
       <c r="C291" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="D291" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="11">
+        <v>1</v>
+      </c>
+      <c r="F291" s="12" t="s">
         <v>923</v>
-      </c>
-      <c r="D291" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="11">
-        <v>1</v>
-      </c>
-      <c r="F291" s="12" t="s">
-        <v>924</v>
       </c>
       <c r="G291" s="11">
         <v>0</v>
@@ -14351,21 +14363,21 @@
         <v>33</v>
       </c>
       <c r="I291" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="J291" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" s="36" customFormat="1">
-      <c r="A292" s="36">
+    </row>
+    <row r="292" spans="1:12" s="36" customFormat="1" ht="16.5">
+      <c r="A292" s="11">
         <v>291</v>
       </c>
-      <c r="B292" s="36">
+      <c r="B292" s="11">
         <v>291</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D292" s="36">
         <v>-1</v>
@@ -14374,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="37" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G292" s="36">
         <v>1</v>
@@ -14383,21 +14395,24 @@
         <v>33</v>
       </c>
       <c r="I292" s="37" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J292" s="37" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" s="36" customFormat="1">
-      <c r="A293" s="36">
+        <v>982</v>
+      </c>
+      <c r="L292" s="41" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" s="36" customFormat="1" ht="16.5">
+      <c r="A293" s="11">
         <v>292</v>
       </c>
-      <c r="B293" s="36">
+      <c r="B293" s="11">
         <v>292</v>
       </c>
       <c r="C293" s="37" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D293" s="36">
         <v>-1</v>
@@ -14405,8 +14420,8 @@
       <c r="E293" s="36">
         <v>1</v>
       </c>
-      <c r="F293" s="36" t="s">
-        <v>934</v>
+      <c r="F293" s="37" t="s">
+        <v>933</v>
       </c>
       <c r="G293" s="36">
         <v>1</v>
@@ -14415,21 +14430,24 @@
         <v>33</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J293" s="37" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" s="36" customFormat="1">
-      <c r="A294" s="36">
+        <v>983</v>
+      </c>
+      <c r="L293" s="41" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" s="36" customFormat="1" ht="16.5">
+      <c r="A294" s="11">
         <v>293</v>
       </c>
-      <c r="B294" s="36">
+      <c r="B294" s="11">
         <v>293</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D294" s="36">
         <v>-1</v>
@@ -14437,8 +14455,8 @@
       <c r="E294" s="36">
         <v>1</v>
       </c>
-      <c r="F294" s="36" t="s">
-        <v>935</v>
+      <c r="F294" s="37" t="s">
+        <v>1014</v>
       </c>
       <c r="G294" s="36">
         <v>1</v>
@@ -14447,13 +14465,16 @@
         <v>33</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J294" s="37" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" s="11" customFormat="1">
+        <v>984</v>
+      </c>
+      <c r="L294" s="41" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" s="11" customFormat="1">
       <c r="A295" s="11">
         <v>294</v>
       </c>
@@ -14461,7 +14482,7 @@
         <v>294</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D295" s="11">
         <v>-1</v>
@@ -14470,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G295" s="11">
         <v>1</v>
@@ -14479,13 +14500,13 @@
         <v>33</v>
       </c>
       <c r="I295" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J295" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" s="11" customFormat="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" s="11" customFormat="1">
       <c r="A296" s="11">
         <v>295</v>
       </c>
@@ -14493,7 +14514,7 @@
         <v>295</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D296" s="11">
         <v>-1</v>
@@ -14502,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G296" s="11">
         <v>1</v>
@@ -14511,13 +14532,13 @@
         <v>33</v>
       </c>
       <c r="I296" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J296" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" s="11" customFormat="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" s="11" customFormat="1">
       <c r="A297" s="11">
         <v>296</v>
       </c>
@@ -14525,7 +14546,7 @@
         <v>296</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D297" s="11">
         <v>-1</v>
@@ -14534,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G297" s="11">
         <v>1</v>
@@ -14543,13 +14564,13 @@
         <v>33</v>
       </c>
       <c r="I297" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="J297" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" s="11" customFormat="1">
+    </row>
+    <row r="298" spans="1:12" s="11" customFormat="1">
       <c r="A298" s="11">
         <v>297</v>
       </c>
@@ -14557,7 +14578,7 @@
         <v>297</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D298" s="11">
         <v>-1</v>
@@ -14566,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G298" s="11">
         <v>1</v>
@@ -14575,13 +14596,13 @@
         <v>33</v>
       </c>
       <c r="I298" s="12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J298" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" s="11" customFormat="1" ht="16.5">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="11">
         <v>298</v>
       </c>
@@ -14589,7 +14610,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D299" s="11">
         <v>-1</v>
@@ -14598,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G299" s="11">
         <v>0</v>
@@ -14610,10 +14631,10 @@
         <v>308</v>
       </c>
       <c r="J299" s="12" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" s="11" customFormat="1" ht="16.5">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A300" s="11">
         <v>299</v>
       </c>
@@ -14621,7 +14642,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D300" s="11">
         <v>-1</v>
@@ -14630,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G300" s="11">
         <v>0</v>
@@ -14642,10 +14663,10 @@
         <v>312</v>
       </c>
       <c r="J300" s="12" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" s="11" customFormat="1" ht="16.5">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A301" s="11">
         <v>300</v>
       </c>
@@ -14653,7 +14674,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D301" s="11">
         <v>-1</v>
@@ -14662,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G301" s="11">
         <v>0</v>
@@ -14671,13 +14692,13 @@
         <v>1</v>
       </c>
       <c r="I301" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J301" s="12" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" s="11" customFormat="1" ht="16.5">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A302" s="11">
         <v>301</v>
       </c>
@@ -14685,7 +14706,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D302" s="11">
         <v>-1</v>
@@ -14694,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G302" s="11">
         <v>0</v>
@@ -14703,13 +14724,13 @@
         <v>1</v>
       </c>
       <c r="I302" s="12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J302" s="12" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" s="11" customFormat="1" ht="16.5">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A303" s="11">
         <v>302</v>
       </c>
@@ -14717,7 +14738,7 @@
         <v>302</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D303" s="11">
         <v>-1</v>
@@ -14726,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G303" s="11">
         <v>0</v>
@@ -14735,13 +14756,13 @@
         <v>1</v>
       </c>
       <c r="I303" s="12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J303" s="12" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" s="11" customFormat="1" ht="16.5">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A304" s="11">
         <v>303</v>
       </c>
@@ -14749,7 +14770,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D304" s="11">
         <v>-1</v>
@@ -14758,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G304" s="11">
         <v>0</v>
@@ -14767,10 +14788,10 @@
         <v>1</v>
       </c>
       <c r="I304" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J304" s="12" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="305" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14781,7 +14802,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D305" s="11">
         <v>-1</v>
@@ -14790,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G305" s="11">
         <v>0</v>
@@ -14799,10 +14820,10 @@
         <v>1</v>
       </c>
       <c r="I305" s="12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J305" s="12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="306" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14813,7 +14834,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D306" s="11">
         <v>-1</v>
@@ -14822,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G306" s="11">
         <v>0</v>
@@ -14831,10 +14852,10 @@
         <v>1</v>
       </c>
       <c r="I306" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J306" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="307" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14845,7 +14866,7 @@
         <v>306</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D307" s="11">
         <v>-1</v>
@@ -14854,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G307" s="11">
         <v>0</v>
@@ -14863,10 +14884,10 @@
         <v>1</v>
       </c>
       <c r="I307" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J307" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="308" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14877,34 +14898,34 @@
         <v>307</v>
       </c>
       <c r="C308" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="D308" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E308" s="11">
+        <v>1</v>
+      </c>
+      <c r="F308" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="G308" s="11">
+        <v>1</v>
+      </c>
+      <c r="H308" s="11">
+        <v>1</v>
+      </c>
+      <c r="I308" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="D308" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E308" s="11">
-        <v>1</v>
-      </c>
-      <c r="F308" s="19" t="s">
+      <c r="J308" s="40" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K308" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="G308" s="11">
-        <v>1</v>
-      </c>
-      <c r="H308" s="11">
-        <v>1</v>
-      </c>
-      <c r="I308" s="12" t="s">
+      <c r="L308" s="39" t="s">
         <v>989</v>
-      </c>
-      <c r="J308" s="40" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K308" s="38" t="s">
-        <v>990</v>
-      </c>
-      <c r="L308" s="39" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14915,34 +14936,34 @@
         <v>308</v>
       </c>
       <c r="C309" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D309" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="11">
+        <v>1</v>
+      </c>
+      <c r="F309" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="G309" s="11">
+        <v>1</v>
+      </c>
+      <c r="H309" s="11">
+        <v>1</v>
+      </c>
+      <c r="I309" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="D309" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="11">
-        <v>1</v>
-      </c>
-      <c r="F309" s="19" t="s">
+      <c r="J309" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K309" s="38" t="s">
+        <v>988</v>
+      </c>
+      <c r="L309" s="39" t="s">
         <v>993</v>
-      </c>
-      <c r="G309" s="11">
-        <v>1</v>
-      </c>
-      <c r="H309" s="11">
-        <v>1</v>
-      </c>
-      <c r="I309" s="12" t="s">
-        <v>994</v>
-      </c>
-      <c r="J309" s="40" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K309" s="38" t="s">
-        <v>990</v>
-      </c>
-      <c r="L309" s="39" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="310" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14953,34 +14974,34 @@
         <v>309</v>
       </c>
       <c r="C310" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="D310" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="11">
+        <v>1</v>
+      </c>
+      <c r="F310" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="G310" s="11">
+        <v>1</v>
+      </c>
+      <c r="H310" s="11">
+        <v>1</v>
+      </c>
+      <c r="I310" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="D310" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E310" s="11">
-        <v>1</v>
-      </c>
-      <c r="F310" s="19" t="s">
-        <v>997</v>
-      </c>
-      <c r="G310" s="11">
-        <v>1</v>
-      </c>
-      <c r="H310" s="11">
-        <v>1</v>
-      </c>
-      <c r="I310" s="12" t="s">
-        <v>998</v>
-      </c>
       <c r="J310" s="40" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="K310" s="38" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L310" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="311" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14991,34 +15012,34 @@
         <v>310</v>
       </c>
       <c r="C311" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="D311" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="11">
+        <v>1</v>
+      </c>
+      <c r="F311" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="G311" s="11">
+        <v>1</v>
+      </c>
+      <c r="H311" s="11">
+        <v>1</v>
+      </c>
+      <c r="I311" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="D311" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E311" s="11">
-        <v>1</v>
-      </c>
-      <c r="F311" s="19" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G311" s="11">
-        <v>1</v>
-      </c>
-      <c r="H311" s="11">
-        <v>1</v>
-      </c>
-      <c r="I311" s="12" t="s">
-        <v>1001</v>
-      </c>
       <c r="J311" s="40" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="K311" s="38" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L311" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="312" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15029,34 +15050,34 @@
         <v>311</v>
       </c>
       <c r="C312" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D312" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="11">
+        <v>1</v>
+      </c>
+      <c r="F312" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G312" s="11">
+        <v>1</v>
+      </c>
+      <c r="H312" s="11">
+        <v>1</v>
+      </c>
+      <c r="I312" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="D312" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E312" s="11">
-        <v>1</v>
-      </c>
-      <c r="F312" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G312" s="11">
-        <v>1</v>
-      </c>
-      <c r="H312" s="11">
-        <v>1</v>
-      </c>
-      <c r="I312" s="12" t="s">
-        <v>1004</v>
-      </c>
       <c r="J312" s="40" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="K312" s="38" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L312" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="313" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15067,34 +15088,34 @@
         <v>312</v>
       </c>
       <c r="C313" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D313" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="11">
+        <v>1</v>
+      </c>
+      <c r="F313" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G313" s="11">
+        <v>1</v>
+      </c>
+      <c r="H313" s="11">
+        <v>1</v>
+      </c>
+      <c r="I313" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="D313" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E313" s="11">
-        <v>1</v>
-      </c>
-      <c r="F313" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G313" s="11">
-        <v>1</v>
-      </c>
-      <c r="H313" s="11">
-        <v>1</v>
-      </c>
-      <c r="I313" s="12" t="s">
-        <v>1007</v>
-      </c>
       <c r="J313" s="40" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="K313" s="38" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="L313" s="39" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.2/item_config.xlsx
+++ b/config_3.2/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1015">
   <si>
     <t>id|行号</t>
   </si>
@@ -3780,12 +3780,119 @@
     <t>通用礼包专用--稀有</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>obj_5_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中可使用</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_10_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_20_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_50_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_100_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_200_coupon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_czyhq6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200元优惠券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买50元档次金币时使用，可抵扣5元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买98元档次金币时使用，可抵扣10元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买198元档次金币时使用，可抵扣20元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买498元档次金币时使用，可抵扣50元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买998元档次金币时使用，可抵扣100元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城中购买2498元档次金币时使用，可抵扣200元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3854,6 +3961,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3960,7 +4074,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4073,6 +4187,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4353,14 +4476,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q307"/>
+  <dimension ref="A1:Q313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J294" sqref="J294"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
@@ -4371,7 +4494,7 @@
     <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="55.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="33.625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="2" customWidth="1"/>
@@ -4380,7 +4503,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="90.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4556,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4460,7 +4583,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4492,7 +4615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4518,7 +4641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4544,7 +4667,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4570,7 +4693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4596,7 +4719,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4622,7 +4745,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4657,7 +4780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4684,7 +4807,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4711,7 +4834,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4738,7 +4861,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4765,7 +4888,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4792,7 +4915,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4819,7 +4942,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4846,7 +4969,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4873,7 +4996,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4900,7 +5023,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4926,7 +5049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4952,7 +5075,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4978,7 +5101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5004,7 +5127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5030,7 +5153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5056,7 +5179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5082,7 +5205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5115,7 +5238,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5142,7 +5265,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5178,7 +5301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="9" customFormat="1">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -5214,7 +5337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5250,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="29" customFormat="1">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -5285,7 +5408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="29" customFormat="1">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -5320,7 +5443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="29" customFormat="1">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -5355,7 +5478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="29" customFormat="1">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -5390,7 +5513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5416,7 +5539,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5452,7 +5575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5488,7 +5611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5524,7 +5647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5554,7 +5677,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5584,7 +5707,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5614,7 +5737,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5652,7 +5775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5688,7 +5811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5724,7 +5847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5760,7 +5883,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5796,7 +5919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5829,7 +5952,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="16.5">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5863,7 +5986,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16.5">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5897,7 +6020,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5924,7 +6047,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5959,7 +6082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5994,7 +6117,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6026,7 +6149,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="16.5">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6064,7 +6187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="16.5">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6102,7 +6225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="16.5">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6140,7 +6263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="16.5">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6175,7 +6298,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="16.5">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6210,7 +6333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="16.5">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6245,7 +6368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="16.5">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6280,7 +6403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="16.5">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6315,7 +6438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="16.5">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6350,7 +6473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="16.5">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6385,7 +6508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="16.5">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6417,7 +6540,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="16.5">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6452,7 +6575,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6484,7 +6607,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6516,7 +6639,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6548,7 +6671,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6580,7 +6703,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="16.5">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6615,7 +6738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="16.5">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6647,7 +6770,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="16.5">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6679,7 +6802,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="16.5">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6717,7 +6840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6755,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="16.5">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6793,7 +6916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="16.5">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6829,7 +6952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="27">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6864,7 +6987,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6897,7 +7020,7 @@
       </c>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="16.5">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6929,7 +7052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="16.5">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6962,7 +7085,7 @@
       </c>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="16.5">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7000,7 +7123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="16.5">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7038,7 +7161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="16.5">
       <c r="A83" s="9">
         <v>82</v>
       </c>
@@ -7070,7 +7193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="16.5">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -7102,7 +7225,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="16.5">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7134,7 +7257,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="16.5">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7166,7 +7289,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="16.5">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7198,7 +7321,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="16.5">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7230,7 +7353,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="16.5">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7262,7 +7385,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="16.5">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7294,7 +7417,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="16.5">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7326,7 +7449,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="16.5">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7358,7 +7481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="16.5">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7390,7 +7513,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="16.5">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7434,7 +7557,7 @@
         <v>1581177599</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="16.5">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7466,7 +7589,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="16.5">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7498,7 +7621,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="16.5">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7533,7 +7656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="16.5">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7568,7 +7691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="16.5">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7603,7 +7726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="16.5">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7638,7 +7761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="16.5">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7673,7 +7796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="16.5">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7708,7 +7831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="16.5">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7743,7 +7866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="16.5">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7778,7 +7901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="16.5">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7813,7 +7936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="16.5">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7848,7 +7971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="16.5">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7885,7 +8008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="16.5">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7922,7 +8045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="16.5">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7954,7 +8077,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="16.5">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7987,7 +8110,7 @@
       </c>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="16.5">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8025,7 +8148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="16.5">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8063,7 +8186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="16.5">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8101,7 +8224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="16.5">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8139,7 +8262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="16.5">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8177,7 +8300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="16.5">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8215,7 +8338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="16.5">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8249,7 +8372,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="16.5">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8281,7 +8404,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="16.5">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8313,7 +8436,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="16.5">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8345,7 +8468,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="16.5">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8377,7 +8500,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="16.5">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8409,7 +8532,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="16.5">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8444,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="16.5">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8479,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="16.5">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8514,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="16.5">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8549,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="16.5">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8584,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="16.5">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8619,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="16.5">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8654,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="16.5">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8689,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="16.5">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8721,7 +8844,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8753,7 +8876,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8785,7 +8908,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8817,7 +8940,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8849,7 +8972,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8881,7 +9004,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8913,7 +9036,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8945,7 +9068,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8977,7 +9100,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9009,7 +9132,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9041,7 +9164,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9073,7 +9196,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9105,7 +9228,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9137,7 +9260,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9169,7 +9292,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -9201,7 +9324,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -9233,7 +9356,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -9265,7 +9388,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -9297,7 +9420,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -9329,7 +9452,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -9361,7 +9484,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -9393,7 +9516,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -9425,7 +9548,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -9457,7 +9580,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="11" customFormat="1">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -9489,7 +9612,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -9521,7 +9644,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -9559,7 +9682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -9597,7 +9720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -9635,7 +9758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -9673,7 +9796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -9711,7 +9834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" s="29" customFormat="1" ht="16.5">
       <c r="A162" s="29">
         <v>161</v>
       </c>
@@ -9746,7 +9869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" s="29" customFormat="1" ht="16.5">
       <c r="A163" s="29">
         <v>162</v>
       </c>
@@ -9781,7 +9904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" s="29" customFormat="1" ht="16.5">
       <c r="A164" s="29">
         <v>163</v>
       </c>
@@ -9816,7 +9939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" s="29" customFormat="1" ht="16.5">
       <c r="A165" s="29">
         <v>164</v>
       </c>
@@ -9851,7 +9974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" s="29" customFormat="1" ht="16.5">
       <c r="A166" s="29">
         <v>165</v>
       </c>
@@ -9886,7 +10009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -9921,7 +10044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -9956,7 +10079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -9991,7 +10114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -10026,7 +10149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -10061,7 +10184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" s="11" customFormat="1" ht="16.5">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -10093,7 +10216,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" s="13" customFormat="1">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -10125,7 +10248,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" s="13" customFormat="1">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -10157,7 +10280,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" s="13" customFormat="1">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -10189,7 +10312,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" s="23" customFormat="1">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -10221,7 +10344,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" s="25" customFormat="1">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -10253,7 +10376,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="16.5">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -10290,7 +10413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="16.5">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -10327,7 +10450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="16.5">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -10364,7 +10487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" s="25" customFormat="1">
       <c r="A181" s="11">
         <v>180</v>
       </c>
@@ -10396,7 +10519,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" s="23" customFormat="1">
       <c r="A182" s="11">
         <v>181</v>
       </c>
@@ -10434,7 +10557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" s="23" customFormat="1">
       <c r="A183" s="11">
         <v>182</v>
       </c>
@@ -10472,7 +10595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" s="23" customFormat="1">
       <c r="A184" s="11">
         <v>183</v>
       </c>
@@ -10510,7 +10633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" s="27" customFormat="1">
       <c r="A185" s="27">
         <v>184</v>
       </c>
@@ -10545,7 +10668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" s="27" customFormat="1">
       <c r="A186" s="27">
         <v>185</v>
       </c>
@@ -10580,7 +10703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" s="27" customFormat="1">
       <c r="A187" s="27">
         <v>186</v>
       </c>
@@ -10615,7 +10738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" s="27" customFormat="1">
       <c r="A188" s="27">
         <v>187</v>
       </c>
@@ -10650,7 +10773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" s="27" customFormat="1">
       <c r="A189" s="27">
         <v>188</v>
       </c>
@@ -10685,7 +10808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" s="27" customFormat="1">
       <c r="A190" s="27">
         <v>189</v>
       </c>
@@ -10720,7 +10843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" s="27" customFormat="1">
       <c r="A191" s="27">
         <v>190</v>
       </c>
@@ -10755,7 +10878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15">
       <c r="A192" s="27">
         <v>191</v>
       </c>
@@ -10790,7 +10913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14">
       <c r="A193" s="27">
         <v>192</v>
       </c>
@@ -10825,7 +10948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14">
       <c r="A194" s="27">
         <v>193</v>
       </c>
@@ -10860,7 +10983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14">
       <c r="A195" s="27">
         <v>194</v>
       </c>
@@ -10895,7 +11018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14">
       <c r="A196" s="27">
         <v>195</v>
       </c>
@@ -10930,7 +11053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14">
       <c r="A197" s="27">
         <v>196</v>
       </c>
@@ -10965,7 +11088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14">
       <c r="A198" s="27">
         <v>197</v>
       </c>
@@ -11000,7 +11123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14">
       <c r="A199" s="27">
         <v>198</v>
       </c>
@@ -11035,7 +11158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14">
       <c r="A200" s="27">
         <v>199</v>
       </c>
@@ -11070,7 +11193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14">
       <c r="A201" s="27">
         <v>200</v>
       </c>
@@ -11105,7 +11228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14">
       <c r="A202" s="27">
         <v>201</v>
       </c>
@@ -11140,7 +11263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14">
       <c r="A203" s="27">
         <v>202</v>
       </c>
@@ -11175,7 +11298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14">
       <c r="A204" s="27">
         <v>203</v>
       </c>
@@ -11210,7 +11333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14">
       <c r="A205" s="27">
         <v>204</v>
       </c>
@@ -11245,7 +11368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14">
       <c r="A206" s="27">
         <v>205</v>
       </c>
@@ -11280,7 +11403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14">
       <c r="A207" s="27">
         <v>206</v>
       </c>
@@ -11315,7 +11438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14">
       <c r="A208" s="27">
         <v>207</v>
       </c>
@@ -11350,7 +11473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14">
       <c r="A209" s="27">
         <v>208</v>
       </c>
@@ -11385,7 +11508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14">
       <c r="A210" s="27">
         <v>209</v>
       </c>
@@ -11420,7 +11543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14">
       <c r="A211" s="27">
         <v>210</v>
       </c>
@@ -11455,7 +11578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14">
       <c r="A212" s="27">
         <v>211</v>
       </c>
@@ -11490,7 +11613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14">
       <c r="A213" s="27">
         <v>212</v>
       </c>
@@ -11525,7 +11648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14">
       <c r="A214" s="27">
         <v>213</v>
       </c>
@@ -11560,7 +11683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14">
       <c r="A215" s="27">
         <v>214</v>
       </c>
@@ -11595,7 +11718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14">
       <c r="A216" s="27">
         <v>215</v>
       </c>
@@ -11630,7 +11753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14">
       <c r="A217" s="27">
         <v>216</v>
       </c>
@@ -11665,7 +11788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14">
       <c r="A218" s="27">
         <v>217</v>
       </c>
@@ -11700,7 +11823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14">
       <c r="A219" s="27">
         <v>218</v>
       </c>
@@ -11735,7 +11858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14">
       <c r="A220" s="27">
         <v>219</v>
       </c>
@@ -11770,7 +11893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14">
       <c r="A221" s="27">
         <v>220</v>
       </c>
@@ -11805,7 +11928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14">
       <c r="A222" s="27">
         <v>221</v>
       </c>
@@ -11840,7 +11963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14">
       <c r="A223" s="27">
         <v>222</v>
       </c>
@@ -11875,7 +11998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14">
       <c r="A224" s="27">
         <v>223</v>
       </c>
@@ -11910,7 +12033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14">
       <c r="A225" s="27">
         <v>224</v>
       </c>
@@ -11945,7 +12068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14">
       <c r="A226" s="27">
         <v>225</v>
       </c>
@@ -11980,7 +12103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14">
       <c r="A227" s="27">
         <v>226</v>
       </c>
@@ -12015,7 +12138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14">
       <c r="A228" s="27">
         <v>227</v>
       </c>
@@ -12050,7 +12173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14">
       <c r="A229" s="27">
         <v>228</v>
       </c>
@@ -12085,7 +12208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14">
       <c r="A230" s="27">
         <v>229</v>
       </c>
@@ -12120,7 +12243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14">
       <c r="A231" s="27">
         <v>230</v>
       </c>
@@ -12155,7 +12278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14">
       <c r="A232" s="27">
         <v>231</v>
       </c>
@@ -12190,7 +12313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14">
       <c r="A233" s="27">
         <v>232</v>
       </c>
@@ -12225,7 +12348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14">
       <c r="A234" s="27">
         <v>233</v>
       </c>
@@ -12260,7 +12383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14">
       <c r="A235" s="27">
         <v>234</v>
       </c>
@@ -12295,7 +12418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14">
       <c r="A236" s="27">
         <v>235</v>
       </c>
@@ -12330,7 +12453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14">
       <c r="A237" s="27">
         <v>236</v>
       </c>
@@ -12365,7 +12488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14">
       <c r="A238" s="27">
         <v>237</v>
       </c>
@@ -12400,7 +12523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14">
       <c r="A239" s="27">
         <v>238</v>
       </c>
@@ -12435,7 +12558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14">
       <c r="A240" s="27">
         <v>239</v>
       </c>
@@ -12470,7 +12593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14">
       <c r="A241" s="27">
         <v>240</v>
       </c>
@@ -12505,7 +12628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14">
       <c r="A242" s="27">
         <v>241</v>
       </c>
@@ -12540,7 +12663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14">
       <c r="A243" s="27">
         <v>242</v>
       </c>
@@ -12575,7 +12698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14">
       <c r="A244" s="27">
         <v>243</v>
       </c>
@@ -12610,7 +12733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14">
       <c r="A245" s="27">
         <v>244</v>
       </c>
@@ -12645,7 +12768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14">
       <c r="A246" s="27">
         <v>245</v>
       </c>
@@ -12680,7 +12803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14">
       <c r="A247" s="27">
         <v>246</v>
       </c>
@@ -12715,7 +12838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14">
       <c r="A248" s="27">
         <v>247</v>
       </c>
@@ -12750,7 +12873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14">
       <c r="A249" s="27">
         <v>248</v>
       </c>
@@ -12785,7 +12908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14">
       <c r="A250" s="27">
         <v>249</v>
       </c>
@@ -12820,7 +12943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14">
       <c r="A251" s="27">
         <v>250</v>
       </c>
@@ -12855,7 +12978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14">
       <c r="A252" s="27">
         <v>251</v>
       </c>
@@ -12890,7 +13013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14">
       <c r="A253" s="27">
         <v>252</v>
       </c>
@@ -12925,7 +13048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14">
       <c r="A254" s="27">
         <v>253</v>
       </c>
@@ -12960,7 +13083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14">
       <c r="A255" s="27">
         <v>254</v>
       </c>
@@ -12995,7 +13118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14">
       <c r="A256" s="27">
         <v>255</v>
       </c>
@@ -13030,7 +13153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14">
       <c r="A257" s="27">
         <v>256</v>
       </c>
@@ -13065,7 +13188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14">
       <c r="A258" s="27">
         <v>257</v>
       </c>
@@ -13100,7 +13223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14">
       <c r="A259" s="27">
         <v>258</v>
       </c>
@@ -13135,7 +13258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14">
       <c r="A260" s="27">
         <v>259</v>
       </c>
@@ -13170,7 +13293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14">
       <c r="A261" s="27">
         <v>260</v>
       </c>
@@ -13205,7 +13328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14">
       <c r="A262" s="27">
         <v>261</v>
       </c>
@@ -13240,7 +13363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14">
       <c r="A263" s="27">
         <v>262</v>
       </c>
@@ -13275,7 +13398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14">
       <c r="A264" s="27">
         <v>263</v>
       </c>
@@ -13310,7 +13433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14">
       <c r="A265" s="27">
         <v>264</v>
       </c>
@@ -13345,7 +13468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14">
       <c r="A266" s="27">
         <v>265</v>
       </c>
@@ -13380,7 +13503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14">
       <c r="A267" s="27">
         <v>266</v>
       </c>
@@ -13415,7 +13538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14">
       <c r="A268" s="27">
         <v>267</v>
       </c>
@@ -13450,7 +13573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14">
       <c r="A269" s="27">
         <v>268</v>
       </c>
@@ -13485,7 +13608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14">
       <c r="A270" s="27">
         <v>269</v>
       </c>
@@ -13520,7 +13643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14">
       <c r="A271" s="27">
         <v>270</v>
       </c>
@@ -13555,7 +13678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14">
       <c r="A272" s="27">
         <v>271</v>
       </c>
@@ -13590,7 +13713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14">
       <c r="A273" s="27">
         <v>272</v>
       </c>
@@ -13625,7 +13748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14">
       <c r="A274" s="27">
         <v>273</v>
       </c>
@@ -13660,7 +13783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14">
       <c r="A275" s="27">
         <v>274</v>
       </c>
@@ -13695,7 +13818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14">
       <c r="A276" s="27">
         <v>275</v>
       </c>
@@ -13730,7 +13853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14">
       <c r="A277" s="27">
         <v>276</v>
       </c>
@@ -13765,7 +13888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14">
       <c r="A278" s="27">
         <v>277</v>
       </c>
@@ -13800,7 +13923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14">
       <c r="A279" s="27">
         <v>278</v>
       </c>
@@ -13835,7 +13958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14">
       <c r="A280" s="27">
         <v>279</v>
       </c>
@@ -13870,7 +13993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14">
       <c r="A281" s="27">
         <v>280</v>
       </c>
@@ -13905,7 +14028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14">
       <c r="A282" s="27">
         <v>281</v>
       </c>
@@ -13940,7 +14063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14">
       <c r="A283" s="27">
         <v>282</v>
       </c>
@@ -13975,7 +14098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14">
       <c r="A284" s="27">
         <v>283</v>
       </c>
@@ -14010,7 +14133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" s="11" customFormat="1">
       <c r="A285" s="11">
         <v>284</v>
       </c>
@@ -14042,7 +14165,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" s="11" customFormat="1">
       <c r="A286" s="11">
         <v>285</v>
       </c>
@@ -14074,7 +14197,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" s="11" customFormat="1">
       <c r="A287" s="11">
         <v>286</v>
       </c>
@@ -14106,7 +14229,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" s="11" customFormat="1">
       <c r="A288" s="11">
         <v>287</v>
       </c>
@@ -14138,7 +14261,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="289" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" s="11" customFormat="1">
       <c r="A289" s="11">
         <v>288</v>
       </c>
@@ -14170,7 +14293,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="290" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" s="11" customFormat="1">
       <c r="A290" s="11">
         <v>289</v>
       </c>
@@ -14202,7 +14325,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="291" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" s="11" customFormat="1">
       <c r="A291" s="11">
         <v>290</v>
       </c>
@@ -14234,7 +14357,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="292" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" s="36" customFormat="1">
       <c r="A292" s="36">
         <v>291</v>
       </c>
@@ -14266,7 +14389,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="293" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" s="36" customFormat="1">
       <c r="A293" s="36">
         <v>292</v>
       </c>
@@ -14298,7 +14421,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" s="36" customFormat="1">
       <c r="A294" s="36">
         <v>293</v>
       </c>
@@ -14330,7 +14453,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="295" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" s="11" customFormat="1">
       <c r="A295" s="11">
         <v>294</v>
       </c>
@@ -14362,7 +14485,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="296" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" s="11" customFormat="1">
       <c r="A296" s="11">
         <v>295</v>
       </c>
@@ -14394,7 +14517,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="297" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" s="11" customFormat="1">
       <c r="A297" s="11">
         <v>296</v>
       </c>
@@ -14426,7 +14549,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="298" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" s="11" customFormat="1">
       <c r="A298" s="11">
         <v>297</v>
       </c>
@@ -14458,7 +14581,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="299" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="11">
         <v>298</v>
       </c>
@@ -14490,7 +14613,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="300" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" s="11" customFormat="1" ht="16.5">
       <c r="A300" s="11">
         <v>299</v>
       </c>
@@ -14522,7 +14645,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="301" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" s="11" customFormat="1" ht="16.5">
       <c r="A301" s="11">
         <v>300</v>
       </c>
@@ -14554,7 +14677,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="302" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" s="11" customFormat="1" ht="16.5">
       <c r="A302" s="11">
         <v>301</v>
       </c>
@@ -14586,7 +14709,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" s="11" customFormat="1" ht="16.5">
       <c r="A303" s="11">
         <v>302</v>
       </c>
@@ -14618,7 +14741,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="304" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" s="11" customFormat="1" ht="16.5">
       <c r="A304" s="11">
         <v>303</v>
       </c>
@@ -14650,7 +14773,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="305" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A305" s="11">
         <v>304</v>
       </c>
@@ -14682,7 +14805,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="306" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A306" s="11">
         <v>305</v>
       </c>
@@ -14714,7 +14837,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="307" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" s="11" customFormat="1" ht="16.5">
       <c r="A307" s="11">
         <v>306</v>
       </c>
@@ -14744,6 +14867,234 @@
       </c>
       <c r="J307" s="12" t="s">
         <v>936</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" s="38" customFormat="1" ht="16.5">
+      <c r="A308" s="11">
+        <v>307</v>
+      </c>
+      <c r="B308" s="11">
+        <v>307</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="D308" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E308" s="11">
+        <v>1</v>
+      </c>
+      <c r="F308" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="G308" s="11">
+        <v>1</v>
+      </c>
+      <c r="H308" s="11">
+        <v>1</v>
+      </c>
+      <c r="I308" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="J308" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K308" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="L308" s="39" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" s="38" customFormat="1" ht="16.5">
+      <c r="A309" s="11">
+        <v>308</v>
+      </c>
+      <c r="B309" s="11">
+        <v>308</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="D309" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="11">
+        <v>1</v>
+      </c>
+      <c r="F309" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="G309" s="11">
+        <v>1</v>
+      </c>
+      <c r="H309" s="11">
+        <v>1</v>
+      </c>
+      <c r="I309" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="J309" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K309" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="L309" s="39" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" s="38" customFormat="1" ht="16.5">
+      <c r="A310" s="11">
+        <v>309</v>
+      </c>
+      <c r="B310" s="11">
+        <v>309</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="D310" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="11">
+        <v>1</v>
+      </c>
+      <c r="F310" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="G310" s="11">
+        <v>1</v>
+      </c>
+      <c r="H310" s="11">
+        <v>1</v>
+      </c>
+      <c r="I310" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="J310" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K310" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="L310" s="39" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" s="38" customFormat="1" ht="16.5">
+      <c r="A311" s="11">
+        <v>310</v>
+      </c>
+      <c r="B311" s="11">
+        <v>310</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D311" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="11">
+        <v>1</v>
+      </c>
+      <c r="F311" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G311" s="11">
+        <v>1</v>
+      </c>
+      <c r="H311" s="11">
+        <v>1</v>
+      </c>
+      <c r="I311" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J311" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K311" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="L311" s="39" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" s="38" customFormat="1" ht="16.5">
+      <c r="A312" s="11">
+        <v>311</v>
+      </c>
+      <c r="B312" s="11">
+        <v>311</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D312" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="11">
+        <v>1</v>
+      </c>
+      <c r="F312" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G312" s="11">
+        <v>1</v>
+      </c>
+      <c r="H312" s="11">
+        <v>1</v>
+      </c>
+      <c r="I312" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J312" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K312" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="L312" s="39" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" s="38" customFormat="1" ht="16.5">
+      <c r="A313" s="11">
+        <v>312</v>
+      </c>
+      <c r="B313" s="11">
+        <v>312</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D313" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="11">
+        <v>1</v>
+      </c>
+      <c r="F313" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G313" s="11">
+        <v>1</v>
+      </c>
+      <c r="H313" s="11">
+        <v>1</v>
+      </c>
+      <c r="I313" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J313" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K313" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="L313" s="39" t="s">
+        <v>996</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.2/item_config.xlsx
+++ b/config_3.2/item_config.xlsx
@@ -3636,10 +3636,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_gdn_x</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3885,6 +3881,10 @@
   </si>
   <si>
     <t>充值商城中购买2498元档次金币时使用，可抵扣200元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4479,8 +4479,8 @@
   <dimension ref="A1:Q313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A310" sqref="A310"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8085,7 +8085,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -8838,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>950</v>
+        <v>1014</v>
       </c>
       <c r="J131" s="35" t="s">
         <v>936</v>
@@ -14365,7 +14365,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D292" s="36">
         <v>-1</v>
@@ -14386,7 +14386,7 @@
         <v>930</v>
       </c>
       <c r="J292" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="293" spans="1:10" s="36" customFormat="1">
@@ -14397,7 +14397,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D293" s="36">
         <v>-1</v>
@@ -14418,7 +14418,7 @@
         <v>931</v>
       </c>
       <c r="J293" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="294" spans="1:10" s="36" customFormat="1">
@@ -14429,7 +14429,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="37" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D294" s="36">
         <v>-1</v>
@@ -14450,7 +14450,7 @@
         <v>932</v>
       </c>
       <c r="J294" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="295" spans="1:10" s="11" customFormat="1">
@@ -14589,7 +14589,7 @@
         <v>298</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D299" s="11">
         <v>-1</v>
@@ -14598,7 +14598,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G299" s="11">
         <v>0</v>
@@ -14610,7 +14610,7 @@
         <v>308</v>
       </c>
       <c r="J299" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="300" spans="1:10" s="11" customFormat="1" ht="16.5">
@@ -14621,7 +14621,7 @@
         <v>299</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D300" s="11">
         <v>-1</v>
@@ -14630,7 +14630,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G300" s="11">
         <v>0</v>
@@ -14642,7 +14642,7 @@
         <v>312</v>
       </c>
       <c r="J300" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="301" spans="1:10" s="11" customFormat="1" ht="16.5">
@@ -14653,7 +14653,7 @@
         <v>300</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D301" s="11">
         <v>-1</v>
@@ -14662,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G301" s="11">
         <v>0</v>
@@ -14671,10 +14671,10 @@
         <v>1</v>
       </c>
       <c r="I301" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J301" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="302" spans="1:10" s="11" customFormat="1" ht="16.5">
@@ -14685,7 +14685,7 @@
         <v>301</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D302" s="11">
         <v>-1</v>
@@ -14694,7 +14694,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G302" s="11">
         <v>0</v>
@@ -14703,10 +14703,10 @@
         <v>1</v>
       </c>
       <c r="I302" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J302" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="303" spans="1:10" s="11" customFormat="1" ht="16.5">
@@ -14717,16 +14717,16 @@
         <v>302</v>
       </c>
       <c r="C303" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="D303" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E303" s="11">
+        <v>1</v>
+      </c>
+      <c r="F303" s="22" t="s">
         <v>963</v>
-      </c>
-      <c r="D303" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E303" s="11">
-        <v>1</v>
-      </c>
-      <c r="F303" s="22" t="s">
-        <v>964</v>
       </c>
       <c r="G303" s="11">
         <v>0</v>
@@ -14735,10 +14735,10 @@
         <v>1</v>
       </c>
       <c r="I303" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="J303" s="12" t="s">
         <v>961</v>
-      </c>
-      <c r="J303" s="12" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="304" spans="1:10" s="11" customFormat="1" ht="16.5">
@@ -14749,7 +14749,7 @@
         <v>303</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D304" s="11">
         <v>-1</v>
@@ -14758,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G304" s="11">
         <v>0</v>
@@ -14767,10 +14767,10 @@
         <v>1</v>
       </c>
       <c r="I304" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="J304" s="12" t="s">
         <v>966</v>
-      </c>
-      <c r="J304" s="12" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="305" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14781,7 +14781,7 @@
         <v>304</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D305" s="11">
         <v>-1</v>
@@ -14790,7 +14790,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G305" s="11">
         <v>0</v>
@@ -14799,10 +14799,10 @@
         <v>1</v>
       </c>
       <c r="I305" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J305" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="306" spans="1:12" s="11" customFormat="1" ht="16.5">
@@ -14813,7 +14813,7 @@
         <v>305</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D306" s="11">
         <v>-1</v>
@@ -14822,7 +14822,7 @@
         <v>1</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G306" s="11">
         <v>0</v>
@@ -14845,16 +14845,16 @@
         <v>306</v>
       </c>
       <c r="C307" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="D307" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E307" s="11">
+        <v>1</v>
+      </c>
+      <c r="F307" s="12" t="s">
         <v>979</v>
-      </c>
-      <c r="D307" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E307" s="11">
-        <v>1</v>
-      </c>
-      <c r="F307" s="12" t="s">
-        <v>980</v>
       </c>
       <c r="G307" s="11">
         <v>0</v>
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J307" s="12" t="s">
         <v>936</v>
@@ -14877,34 +14877,34 @@
         <v>307</v>
       </c>
       <c r="C308" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="D308" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E308" s="11">
+        <v>1</v>
+      </c>
+      <c r="F308" s="19" t="s">
         <v>988</v>
       </c>
-      <c r="D308" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E308" s="11">
-        <v>1</v>
-      </c>
-      <c r="F308" s="19" t="s">
+      <c r="G308" s="11">
+        <v>1</v>
+      </c>
+      <c r="H308" s="11">
+        <v>1</v>
+      </c>
+      <c r="I308" s="12" t="s">
         <v>989</v>
       </c>
-      <c r="G308" s="11">
-        <v>1</v>
-      </c>
-      <c r="H308" s="11">
-        <v>1</v>
-      </c>
-      <c r="I308" s="12" t="s">
+      <c r="J308" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K308" s="38" t="s">
         <v>990</v>
       </c>
-      <c r="J308" s="40" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K308" s="38" t="s">
+      <c r="L308" s="39" t="s">
         <v>991</v>
-      </c>
-      <c r="L308" s="39" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="309" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14915,34 +14915,34 @@
         <v>308</v>
       </c>
       <c r="C309" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="D309" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E309" s="11">
+        <v>1</v>
+      </c>
+      <c r="F309" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="D309" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E309" s="11">
-        <v>1</v>
-      </c>
-      <c r="F309" s="19" t="s">
+      <c r="G309" s="11">
+        <v>1</v>
+      </c>
+      <c r="H309" s="11">
+        <v>1</v>
+      </c>
+      <c r="I309" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="G309" s="11">
-        <v>1</v>
-      </c>
-      <c r="H309" s="11">
-        <v>1</v>
-      </c>
-      <c r="I309" s="12" t="s">
+      <c r="J309" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K309" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="L309" s="39" t="s">
         <v>995</v>
-      </c>
-      <c r="J309" s="40" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K309" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="L309" s="39" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="310" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14953,34 +14953,34 @@
         <v>309</v>
       </c>
       <c r="C310" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="D310" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E310" s="11">
+        <v>1</v>
+      </c>
+      <c r="F310" s="19" t="s">
         <v>997</v>
       </c>
-      <c r="D310" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E310" s="11">
-        <v>1</v>
-      </c>
-      <c r="F310" s="19" t="s">
+      <c r="G310" s="11">
+        <v>1</v>
+      </c>
+      <c r="H310" s="11">
+        <v>1</v>
+      </c>
+      <c r="I310" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="G310" s="11">
-        <v>1</v>
-      </c>
-      <c r="H310" s="11">
-        <v>1</v>
-      </c>
-      <c r="I310" s="12" t="s">
-        <v>999</v>
-      </c>
       <c r="J310" s="40" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K310" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="L310" s="39" t="s">
         <v>991</v>
-      </c>
-      <c r="L310" s="39" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="311" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -14991,34 +14991,34 @@
         <v>310</v>
       </c>
       <c r="C311" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="D311" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E311" s="11">
+        <v>1</v>
+      </c>
+      <c r="F311" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="D311" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E311" s="11">
-        <v>1</v>
-      </c>
-      <c r="F311" s="19" t="s">
+      <c r="G311" s="11">
+        <v>1</v>
+      </c>
+      <c r="H311" s="11">
+        <v>1</v>
+      </c>
+      <c r="I311" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="G311" s="11">
-        <v>1</v>
-      </c>
-      <c r="H311" s="11">
-        <v>1</v>
-      </c>
-      <c r="I311" s="12" t="s">
-        <v>1002</v>
-      </c>
       <c r="J311" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K311" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="L311" s="39" t="s">
         <v>991</v>
-      </c>
-      <c r="L311" s="39" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="312" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15029,34 +15029,34 @@
         <v>311</v>
       </c>
       <c r="C312" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D312" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E312" s="11">
+        <v>1</v>
+      </c>
+      <c r="F312" s="19" t="s">
         <v>1003</v>
       </c>
-      <c r="D312" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E312" s="11">
-        <v>1</v>
-      </c>
-      <c r="F312" s="19" t="s">
+      <c r="G312" s="11">
+        <v>1</v>
+      </c>
+      <c r="H312" s="11">
+        <v>1</v>
+      </c>
+      <c r="I312" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="G312" s="11">
-        <v>1</v>
-      </c>
-      <c r="H312" s="11">
-        <v>1</v>
-      </c>
-      <c r="I312" s="12" t="s">
-        <v>1005</v>
-      </c>
       <c r="J312" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K312" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="L312" s="39" t="s">
         <v>991</v>
-      </c>
-      <c r="L312" s="39" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="313" spans="1:12" s="38" customFormat="1" ht="16.5">
@@ -15067,34 +15067,34 @@
         <v>312</v>
       </c>
       <c r="C313" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D313" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E313" s="11">
+        <v>1</v>
+      </c>
+      <c r="F313" s="19" t="s">
         <v>1006</v>
       </c>
-      <c r="D313" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E313" s="11">
-        <v>1</v>
-      </c>
-      <c r="F313" s="19" t="s">
+      <c r="G313" s="11">
+        <v>1</v>
+      </c>
+      <c r="H313" s="11">
+        <v>1</v>
+      </c>
+      <c r="I313" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="G313" s="11">
-        <v>1</v>
-      </c>
-      <c r="H313" s="11">
-        <v>1</v>
-      </c>
-      <c r="I313" s="12" t="s">
-        <v>1008</v>
-      </c>
       <c r="J313" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K313" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L313" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
